--- a/backend/Wedding Products.xlsx
+++ b/backend/Wedding Products.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\prabhakar\Desktop\assignment\node-fs\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E483BCF-9EB7-421B-A7D8-3D71341D92E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Wedding Bands" sheetId="2" r:id="rId1"/>
@@ -32,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="242">
   <si>
     <t>prod_sku</t>
   </si>
@@ -748,25 +742,22 @@
     <t>rating</t>
   </si>
   <si>
-    <t>https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg</t>
-  </si>
-  <si>
-    <t>https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg</t>
-  </si>
-  <si>
-    <t>https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg</t>
-  </si>
-  <si>
     <t>https://www.dercodiamonds.com/wp-content/uploads/2021/03/12-Y-1-768x768.jpg</t>
   </si>
   <si>
     <t>rating_count</t>
+  </si>
+  <si>
+    <t>https://fakestoreapi.com/img/51UDEzMJVpL._AC_UL640_QL65_ML3_.jpg</t>
+  </si>
+  <si>
+    <t>https://fakestoreapi.com/img/71YAIFU48IL._AC_UL640_QL65_ML3_.jpg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1160,54 +1151,54 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FF4A86E8"/>
   </sheetPr>
   <dimension ref="A1:AF58"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="AA2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="AF1" sqref="AF1"/>
+      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.44140625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.33203125" customWidth="1"/>
-    <col min="2" max="2" width="2.5546875" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="2.5703125" customWidth="1"/>
     <col min="3" max="3" width="5" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="17.44140625" customWidth="1"/>
-    <col min="6" max="6" width="13.88671875" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="8.109375" customWidth="1"/>
-    <col min="9" max="9" width="13.109375" customWidth="1"/>
-    <col min="10" max="10" width="6.44140625" customWidth="1"/>
-    <col min="11" max="11" width="9.44140625" customWidth="1"/>
-    <col min="12" max="12" width="14.33203125" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="17.42578125" customWidth="1"/>
+    <col min="6" max="6" width="13.85546875" customWidth="1"/>
+    <col min="7" max="7" width="12.7109375" customWidth="1"/>
+    <col min="8" max="8" width="8.140625" customWidth="1"/>
+    <col min="9" max="9" width="13.140625" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+    <col min="11" max="11" width="9.42578125" customWidth="1"/>
+    <col min="12" max="12" width="14.28515625" customWidth="1"/>
     <col min="13" max="13" width="7" customWidth="1"/>
-    <col min="14" max="14" width="22.6640625" customWidth="1"/>
-    <col min="15" max="15" width="35.109375" customWidth="1"/>
-    <col min="16" max="16" width="8.6640625" customWidth="1"/>
-    <col min="17" max="17" width="39.44140625" customWidth="1"/>
-    <col min="18" max="18" width="9.109375" customWidth="1"/>
-    <col min="19" max="19" width="24.33203125" customWidth="1"/>
-    <col min="20" max="20" width="22.33203125" customWidth="1"/>
-    <col min="21" max="21" width="34.44140625" customWidth="1"/>
-    <col min="22" max="22" width="27.6640625" customWidth="1"/>
-    <col min="23" max="23" width="37.44140625" customWidth="1"/>
-    <col min="24" max="24" width="29.44140625" customWidth="1"/>
-    <col min="25" max="25" width="43.44140625" customWidth="1"/>
-    <col min="26" max="26" width="36.33203125" customWidth="1"/>
-    <col min="27" max="27" width="43.44140625" customWidth="1"/>
-    <col min="28" max="28" width="34.109375" customWidth="1"/>
-    <col min="29" max="29" width="35.6640625" customWidth="1"/>
-    <col min="30" max="30" width="31.109375" customWidth="1"/>
+    <col min="14" max="14" width="22.7109375" customWidth="1"/>
+    <col min="15" max="15" width="35.140625" customWidth="1"/>
+    <col min="16" max="16" width="8.7109375" customWidth="1"/>
+    <col min="17" max="17" width="39.42578125" customWidth="1"/>
+    <col min="18" max="18" width="9.140625" customWidth="1"/>
+    <col min="19" max="19" width="24.28515625" customWidth="1"/>
+    <col min="20" max="20" width="22.28515625" customWidth="1"/>
+    <col min="21" max="21" width="34.42578125" customWidth="1"/>
+    <col min="22" max="22" width="27.7109375" customWidth="1"/>
+    <col min="23" max="23" width="37.42578125" customWidth="1"/>
+    <col min="24" max="24" width="29.42578125" customWidth="1"/>
+    <col min="25" max="25" width="43.42578125" customWidth="1"/>
+    <col min="26" max="26" width="36.28515625" customWidth="1"/>
+    <col min="27" max="27" width="43.42578125" customWidth="1"/>
+    <col min="28" max="28" width="34.140625" customWidth="1"/>
+    <col min="29" max="29" width="35.7109375" customWidth="1"/>
+    <col min="30" max="30" width="31.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:32" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1302,10 +1293,10 @@
         <v>237</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="2" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1001</v>
       </c>
@@ -1373,7 +1364,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="3" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>1002</v>
       </c>
@@ -1423,7 +1414,7 @@
       </c>
       <c r="R3" s="5"/>
       <c r="S3" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T3" s="3" t="s">
         <v>236</v>
@@ -1445,7 +1436,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="4" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>1003</v>
       </c>
@@ -1493,7 +1484,7 @@
         <v>2450</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>236</v>
@@ -1515,7 +1506,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="5" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>1004</v>
       </c>
@@ -1569,7 +1560,7 @@
         <v>3975</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>236</v>
@@ -1591,7 +1582,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="6" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A6" s="3">
         <v>1005</v>
       </c>
@@ -1659,7 +1650,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="7" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>1006</v>
       </c>
@@ -1699,7 +1690,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="5"/>
       <c r="S7" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>236</v>
@@ -1721,7 +1712,7 @@
         <v>625</v>
       </c>
     </row>
-    <row r="8" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>1007</v>
       </c>
@@ -1797,7 +1788,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="9" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>1008</v>
       </c>
@@ -1837,7 +1828,7 @@
       <c r="Q9" s="3"/>
       <c r="R9" s="5"/>
       <c r="S9" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T9" s="3" t="s">
         <v>236</v>
@@ -1859,7 +1850,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="10" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>1009</v>
       </c>
@@ -1899,7 +1890,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="5"/>
       <c r="S10" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>236</v>
@@ -1921,7 +1912,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="11" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>1010</v>
       </c>
@@ -1983,7 +1974,7 @@
         <v>912</v>
       </c>
     </row>
-    <row r="12" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>1011</v>
       </c>
@@ -2051,7 +2042,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="13" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>1012</v>
       </c>
@@ -2091,7 +2082,7 @@
       <c r="Q13" s="3"/>
       <c r="R13" s="5"/>
       <c r="S13" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T13" s="3" t="s">
         <v>236</v>
@@ -2113,7 +2104,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="14" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>1013</v>
       </c>
@@ -2153,7 +2144,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="5"/>
       <c r="S14" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>236</v>
@@ -2175,7 +2166,7 @@
         <v>1423</v>
       </c>
     </row>
-    <row r="15" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>1014</v>
       </c>
@@ -2215,7 +2206,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="5"/>
       <c r="S15" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>236</v>
@@ -2237,7 +2228,7 @@
         <v>546</v>
       </c>
     </row>
-    <row r="16" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>1015</v>
       </c>
@@ -2299,7 +2290,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A17" s="3">
         <v>1016</v>
       </c>
@@ -2349,7 +2340,7 @@
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="12" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>236</v>
@@ -2371,7 +2362,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A18" s="3">
         <v>1017</v>
       </c>
@@ -2433,7 +2424,7 @@
         <v>698</v>
       </c>
     </row>
-    <row r="19" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A19" s="3">
         <v>1018</v>
       </c>
@@ -2501,7 +2492,7 @@
         <v>986</v>
       </c>
     </row>
-    <row r="20" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A20" s="3">
         <v>1019</v>
       </c>
@@ -2569,7 +2560,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="21" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A21" s="3">
         <v>1020</v>
       </c>
@@ -2631,7 +2622,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="22" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A22" s="3">
         <v>1021</v>
       </c>
@@ -2699,7 +2690,7 @@
         <v>652</v>
       </c>
     </row>
-    <row r="23" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A23" s="3">
         <v>1022</v>
       </c>
@@ -2761,7 +2752,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="24" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A24" s="3">
         <v>1023</v>
       </c>
@@ -2801,7 +2792,7 @@
       <c r="Q24" s="3"/>
       <c r="R24" s="5"/>
       <c r="S24" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T24" s="3" t="s">
         <v>236</v>
@@ -2823,7 +2814,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="25" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A25" s="3">
         <v>1024</v>
       </c>
@@ -2885,7 +2876,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="26" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A26" s="3">
         <v>1025</v>
       </c>
@@ -2959,7 +2950,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="27" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A27" s="3">
         <v>1026</v>
       </c>
@@ -3033,7 +3024,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="28" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A28" s="3">
         <v>1027</v>
       </c>
@@ -3111,7 +3102,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="29" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A29" s="3">
         <v>1028</v>
       </c>
@@ -3173,7 +3164,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="30" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>1029</v>
       </c>
@@ -3235,7 +3226,7 @@
         <v>856</v>
       </c>
     </row>
-    <row r="31" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A31" s="3">
         <v>1030</v>
       </c>
@@ -3275,7 +3266,7 @@
       <c r="Q31" s="3"/>
       <c r="R31" s="5"/>
       <c r="S31" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T31" s="3" t="s">
         <v>236</v>
@@ -3297,7 +3288,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="32" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A32" s="3">
         <v>1031</v>
       </c>
@@ -3359,7 +3350,7 @@
         <v>985</v>
       </c>
     </row>
-    <row r="33" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="3">
         <v>1032</v>
       </c>
@@ -3431,7 +3422,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="34" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A34" s="3">
         <v>1033</v>
       </c>
@@ -3493,7 +3484,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="35" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A35" s="3">
         <v>1034</v>
       </c>
@@ -3547,7 +3538,7 @@
         <v>4525</v>
       </c>
       <c r="S35" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T35" s="3" t="s">
         <v>236</v>
@@ -3569,7 +3560,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="36" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A36" s="3">
         <v>1035</v>
       </c>
@@ -3625,7 +3616,7 @@
         <v>4610</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>236</v>
@@ -3647,7 +3638,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="37" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A37" s="3">
         <v>1036</v>
       </c>
@@ -3703,7 +3694,7 @@
         <v>4150</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>236</v>
@@ -3725,7 +3716,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="38" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A38" s="3">
         <v>1037</v>
       </c>
@@ -3787,7 +3778,7 @@
         <v>542</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A39" s="3">
         <v>1038</v>
       </c>
@@ -3863,7 +3854,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="40" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A40" s="3">
         <v>1039</v>
       </c>
@@ -3925,7 +3916,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="41" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A41" s="3">
         <v>1040</v>
       </c>
@@ -3987,7 +3978,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="42" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A42" s="3">
         <v>1041</v>
       </c>
@@ -4057,7 +4048,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="43" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A43" s="3">
         <v>1042</v>
       </c>
@@ -4125,7 +4116,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="44" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A44" s="3">
         <v>1043</v>
       </c>
@@ -4193,7 +4184,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="45" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A45" s="3">
         <v>1044</v>
       </c>
@@ -4235,7 +4226,7 @@
       <c r="Q45" s="3"/>
       <c r="R45" s="5"/>
       <c r="S45" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T45" s="3" t="s">
         <v>236</v>
@@ -4257,7 +4248,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="46" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A46" s="3">
         <v>1045</v>
       </c>
@@ -4299,7 +4290,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>236</v>
@@ -4321,7 +4312,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="47" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A47" s="3">
         <v>1046</v>
       </c>
@@ -4363,7 +4354,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="5"/>
       <c r="S47" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>236</v>
@@ -4385,7 +4376,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="48" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A48" s="3">
         <v>1047</v>
       </c>
@@ -4447,7 +4438,7 @@
         <v>521</v>
       </c>
     </row>
-    <row r="49" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A49" s="3">
         <v>1048</v>
       </c>
@@ -4523,7 +4514,7 @@
         <v>654</v>
       </c>
     </row>
-    <row r="50" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A50" s="3">
         <v>1049</v>
       </c>
@@ -4599,7 +4590,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="51" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A51" s="3">
         <v>1050</v>
       </c>
@@ -4675,7 +4666,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="52" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A52" s="3">
         <v>1051</v>
       </c>
@@ -4729,7 +4720,7 @@
         <v>5545</v>
       </c>
       <c r="S52" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T52" s="3" t="s">
         <v>236</v>
@@ -4751,7 +4742,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="53" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A53" s="3">
         <v>1052</v>
       </c>
@@ -4805,7 +4796,7 @@
         <v>3060</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>236</v>
@@ -4827,7 +4818,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="54" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A54" s="3">
         <v>1053</v>
       </c>
@@ -4883,7 +4874,7 @@
         <v>3855</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>236</v>
@@ -4905,7 +4896,7 @@
         <v>700</v>
       </c>
     </row>
-    <row r="55" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A55" s="3">
         <v>1054</v>
       </c>
@@ -4981,7 +4972,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="56" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A56" s="3">
         <v>1055</v>
       </c>
@@ -5035,7 +5026,7 @@
         <v>5345</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="T56" s="3" t="s">
         <v>236</v>
@@ -5057,7 +5048,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="57" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A57" s="3">
         <v>1056</v>
       </c>
@@ -5111,7 +5102,7 @@
         <v>7420</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>236</v>
@@ -5133,7 +5124,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="58" spans="1:32" ht="14.4" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A58" s="3">
         <v>1057</v>
       </c>
@@ -5187,7 +5178,7 @@
         <v>7865</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>236</v>
@@ -5222,32 +5213,32 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="S24" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
-    <hyperlink ref="S23" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
-    <hyperlink ref="S3" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
-    <hyperlink ref="S4" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000003000000}"/>
-    <hyperlink ref="S5" r:id="rId5" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="S7" r:id="rId6" xr:uid="{00000000-0004-0000-0000-000005000000}"/>
-    <hyperlink ref="S13" r:id="rId7" xr:uid="{00000000-0004-0000-0000-000006000000}"/>
-    <hyperlink ref="S14" r:id="rId8" xr:uid="{00000000-0004-0000-0000-000007000000}"/>
-    <hyperlink ref="S15" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="S17" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000009000000}"/>
-    <hyperlink ref="S9" r:id="rId11" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="S10" r:id="rId12" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="S31" r:id="rId13" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="S30" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="S35" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00000E000000}"/>
-    <hyperlink ref="S36" r:id="rId16" xr:uid="{00000000-0004-0000-0000-00000F000000}"/>
-    <hyperlink ref="S37" r:id="rId17" xr:uid="{00000000-0004-0000-0000-000010000000}"/>
-    <hyperlink ref="S45" r:id="rId18" xr:uid="{00000000-0004-0000-0000-000011000000}"/>
-    <hyperlink ref="S46" r:id="rId19" xr:uid="{00000000-0004-0000-0000-000012000000}"/>
-    <hyperlink ref="S47" r:id="rId20" xr:uid="{00000000-0004-0000-0000-000013000000}"/>
-    <hyperlink ref="S52" r:id="rId21" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="S53" r:id="rId22" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="S54" r:id="rId23" xr:uid="{00000000-0004-0000-0000-000016000000}"/>
-    <hyperlink ref="S56" r:id="rId24" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="S57" r:id="rId25" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="S58" r:id="rId26" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="S24" r:id="rId1" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S23" r:id="rId2"/>
+    <hyperlink ref="S3" r:id="rId3" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S4" r:id="rId4" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S5" r:id="rId5" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
+    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S13" r:id="rId7" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S14" r:id="rId8" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S15" r:id="rId9" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
+    <hyperlink ref="S17" r:id="rId10"/>
+    <hyperlink ref="S9" r:id="rId11" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S10" r:id="rId12" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S31" r:id="rId13" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S30" r:id="rId14"/>
+    <hyperlink ref="S35" r:id="rId15" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S36" r:id="rId16" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S37" r:id="rId17" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
+    <hyperlink ref="S45" r:id="rId18" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S46" r:id="rId19" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S47" r:id="rId20" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
+    <hyperlink ref="S52" r:id="rId21" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S53" r:id="rId22" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S54" r:id="rId23" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
+    <hyperlink ref="S56" r:id="rId24" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
+    <hyperlink ref="S57" r:id="rId25" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
+    <hyperlink ref="S58" r:id="rId26" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="landscape"/>
@@ -5255,7 +5246,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <tabColor rgb="FFFF0000"/>
   </sheetPr>
@@ -5265,13 +5256,13 @@
       <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="84.6640625" customWidth="1"/>
-    <col min="2" max="2" width="70.33203125" customWidth="1"/>
+    <col min="1" max="1" width="84.7109375" customWidth="1"/>
+    <col min="2" max="2" width="70.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -5279,7 +5270,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="7" t="s">
         <v>1</v>
       </c>
@@ -5287,7 +5278,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
         <v>2</v>
       </c>
@@ -5295,7 +5286,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
@@ -5303,7 +5294,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="7" t="s">
         <v>4</v>
       </c>
@@ -5311,7 +5302,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
         <v>5</v>
       </c>
@@ -5319,7 +5310,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="7" t="s">
         <v>6</v>
       </c>
@@ -5327,7 +5318,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
         <v>7</v>
       </c>
@@ -5335,7 +5326,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="7" t="s">
         <v>8</v>
       </c>
@@ -5343,7 +5334,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
         <v>9</v>
       </c>
@@ -5351,7 +5342,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
         <v>10</v>
       </c>
@@ -5359,7 +5350,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
         <v>11</v>
       </c>
@@ -5367,7 +5358,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
         <v>12</v>
       </c>
@@ -5375,7 +5366,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
         <v>13</v>
       </c>
@@ -5383,7 +5374,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="7" t="s">
         <v>14</v>
       </c>
@@ -5391,7 +5382,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
         <v>15</v>
       </c>
@@ -5399,7 +5390,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="7" t="s">
         <v>16</v>
       </c>
@@ -5407,7 +5398,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>17</v>
       </c>
@@ -5415,7 +5406,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="7" t="s">
         <v>18</v>
       </c>
@@ -5423,7 +5414,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A20" s="7" t="s">
         <v>19</v>
       </c>
@@ -5431,7 +5422,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A21" s="7" t="s">
         <v>20</v>
       </c>
@@ -5439,7 +5430,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="7" t="s">
         <v>21</v>
       </c>
@@ -5447,7 +5438,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="7" t="s">
         <v>22</v>
       </c>
@@ -5455,7 +5446,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="7" t="s">
         <v>23</v>
       </c>
@@ -5463,7 +5454,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="7" t="s">
         <v>24</v>
       </c>
@@ -5471,7 +5462,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="7" t="s">
         <v>25</v>
       </c>
@@ -5479,7 +5470,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="7" t="s">
         <v>26</v>
       </c>
@@ -5487,7 +5478,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="7" t="s">
         <v>27</v>
       </c>
@@ -5495,7 +5486,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="7" t="s">
         <v>28</v>
       </c>
@@ -5503,7 +5494,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="7" t="s">
         <v>29</v>
       </c>

--- a/backend/Wedding Products.xlsx
+++ b/backend/Wedding Products.xlsx
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="241">
   <si>
     <t>prod_sku</t>
   </si>
@@ -740,9 +740,6 @@
   </si>
   <si>
     <t>rating</t>
-  </si>
-  <si>
-    <t>https://www.dercodiamonds.com/wp-content/uploads/2021/03/12-Y-1-768x768.jpg</t>
   </si>
   <si>
     <t>rating_count</t>
@@ -1161,7 +1158,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="O2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="S5" sqref="S5"/>
+      <selection pane="bottomRight" activeCell="S7" sqref="S7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1293,7 +1290,7 @@
         <v>237</v>
       </c>
       <c r="AF1" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
@@ -1484,7 +1481,7 @@
         <v>2450</v>
       </c>
       <c r="S4" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T4" s="3" t="s">
         <v>236</v>
@@ -1560,7 +1557,7 @@
         <v>3975</v>
       </c>
       <c r="S5" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T5" s="3" t="s">
         <v>236</v>
@@ -1690,7 +1687,7 @@
       <c r="Q7" s="3"/>
       <c r="R7" s="5"/>
       <c r="S7" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T7" s="3" t="s">
         <v>236</v>
@@ -1890,7 +1887,7 @@
       <c r="Q10" s="3"/>
       <c r="R10" s="5"/>
       <c r="S10" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T10" s="3" t="s">
         <v>236</v>
@@ -2144,7 +2141,7 @@
       <c r="Q14" s="3"/>
       <c r="R14" s="5"/>
       <c r="S14" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T14" s="3" t="s">
         <v>236</v>
@@ -2206,7 +2203,7 @@
       <c r="Q15" s="3"/>
       <c r="R15" s="5"/>
       <c r="S15" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T15" s="3" t="s">
         <v>236</v>
@@ -2340,7 +2337,7 @@
       </c>
       <c r="R17" s="5"/>
       <c r="S17" s="12" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="T17" s="3" t="s">
         <v>236</v>
@@ -3616,7 +3613,7 @@
         <v>4610</v>
       </c>
       <c r="S36" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T36" s="3" t="s">
         <v>236</v>
@@ -3694,7 +3691,7 @@
         <v>4150</v>
       </c>
       <c r="S37" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T37" s="3" t="s">
         <v>236</v>
@@ -4290,7 +4287,7 @@
       <c r="Q46" s="3"/>
       <c r="R46" s="5"/>
       <c r="S46" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T46" s="3" t="s">
         <v>236</v>
@@ -4354,7 +4351,7 @@
       <c r="Q47" s="3"/>
       <c r="R47" s="5"/>
       <c r="S47" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T47" s="3" t="s">
         <v>236</v>
@@ -4796,7 +4793,7 @@
         <v>3060</v>
       </c>
       <c r="S53" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T53" s="3" t="s">
         <v>236</v>
@@ -4874,7 +4871,7 @@
         <v>3855</v>
       </c>
       <c r="S54" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T54" s="3" t="s">
         <v>236</v>
@@ -5102,7 +5099,7 @@
         <v>7420</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="T57" s="3" t="s">
         <v>236</v>
@@ -5178,7 +5175,7 @@
         <v>7865</v>
       </c>
       <c r="S58" s="12" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="T58" s="3" t="s">
         <v>236</v>
@@ -5218,11 +5215,11 @@
     <hyperlink ref="S3" r:id="rId3" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
     <hyperlink ref="S4" r:id="rId4" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
     <hyperlink ref="S5" r:id="rId5" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
-    <hyperlink ref="S7" r:id="rId6"/>
+    <hyperlink ref="S7" r:id="rId6" display="https://www.dercodiamonds.com/wp-content/uploads/2021/03/12-Y-1-768x768.jpg"/>
     <hyperlink ref="S13" r:id="rId7" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
     <hyperlink ref="S14" r:id="rId8" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
     <hyperlink ref="S15" r:id="rId9" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_RF-768x768.jpg"/>
-    <hyperlink ref="S17" r:id="rId10"/>
+    <hyperlink ref="S17" r:id="rId10" display="https://www.dercodiamonds.com/wp-content/uploads/2021/03/12-Y-1-768x768.jpg"/>
     <hyperlink ref="S9" r:id="rId11" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
     <hyperlink ref="S10" r:id="rId12" display="https://www.dercodiamonds.com/wp-content/uploads/2022/10/749192_WF-768x768.jpg"/>
     <hyperlink ref="S31" r:id="rId13" display="https://www.dercodiamonds.com/wp-content/uploads/2021/01/09fdd3a8-eb22-4429-adfa-4627fbd24efa-768x768.jpg"/>
